--- a/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>14,26%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 25,45</t>
+          <t>3,61; 40,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 27,17</t>
+          <t>3,53; 29,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,19</t>
+          <t>5,38; 26,66</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 22,73</t>
+          <t>15,44; 25,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,22</t>
+          <t>16,19; 27,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,87</t>
+          <t>16,96; 24,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>30,9%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 40,29</t>
+          <t>23,63; 37,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 29,71</t>
+          <t>23,89; 43,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 26,66</t>
+          <t>25,52; 37,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>18,54%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,63; 37,99</t>
+          <t>13,0; 22,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,89; 43,44</t>
+          <t>14,92; 25,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,52; 37,56</t>
+          <t>15,07; 22,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,25; 44,06</t>
+          <t>22,86; 45,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 25,21</t>
+          <t>11,51; 25,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 32,98</t>
+          <t>19,23; 32,93</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 25,45</t>
+          <t>15,07; 24,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 27,17</t>
+          <t>15,91; 27,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,96; 24,19</t>
+          <t>16,95; 24,24</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,63; 37,99</t>
+          <t>23,91; 38,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 43,44</t>
+          <t>24,79; 43,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 37,56</t>
+          <t>26,28; 38,26</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,0; 22,73</t>
+          <t>12,75; 22,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 25,22</t>
+          <t>15,07; 25,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,87</t>
+          <t>14,9; 22,3</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,09</t>
+          <t>20,48; 27,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,62</t>
+          <t>19,61; 26,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,84; 25,69</t>
+          <t>20,82; 25,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 40,29</t>
+          <t>3,98; 42,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 29,71</t>
+          <t>3,76; 30,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 26,66</t>
+          <t>5,75; 25,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,86; 45,26</t>
+          <t>23,27; 45,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,51; 25,37</t>
+          <t>11,05; 24,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,23; 32,93</t>
+          <t>19,28; 33,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 24,48</t>
+          <t>15,38; 25,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 27,18</t>
+          <t>16,22; 26,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,24</t>
+          <t>17,16; 24,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 38,18</t>
+          <t>24,01; 38,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,79; 43,92</t>
+          <t>23,45; 43,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,28; 38,26</t>
+          <t>25,78; 38,32</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 22,85</t>
+          <t>12,79; 23,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 25,25</t>
+          <t>14,66; 24,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 22,3</t>
+          <t>15,22; 22,8</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,48; 27,19</t>
+          <t>20,44; 27,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,61; 26,96</t>
+          <t>19,46; 26,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,82; 25,53</t>
+          <t>20,74; 25,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25A_1_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>26,2%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 42,21</t>
+          <t>11,32; 23,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 30,82</t>
+          <t>23,72; 50,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 25,91</t>
+          <t>20,28; 37,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>20,12%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,27; 45,43</t>
+          <t>15,59; 26,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 24,87</t>
+          <t>15,58; 25,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,28; 33,65</t>
+          <t>16,76; 23,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>34,05%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,27</t>
+          <t>25,39; 61,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,22; 26,85</t>
+          <t>22,6; 36,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 24,32</t>
+          <t>26,37; 48,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,01; 38,47</t>
+          <t>14,94; 25,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,45; 43,73</t>
+          <t>13,21; 23,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,78; 38,32</t>
+          <t>15,23; 23,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 23,48</t>
+          <t>20,09; 37,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 24,94</t>
+          <t>21,19; 28,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,22; 22,8</t>
+          <t>21,85; 30,19</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>23,55%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22,55%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>20,44; 27,22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,46; 26,71</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>20,74; 25,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
